--- a/Data/Delphi round 1/response sheets/Daniel Ai - give your expert opinion on woodland condition115.xlsx
+++ b/Data/Delphi round 1/response sheets/Daniel Ai - give your expert opinion on woodland condition115.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://woodlandtrustorg.sharepoint.com/sites/ConservationOutcomesEvidence-EcologicalConditionAssessmentProject/Shared Documents/Ecological Condition Assessment Project/Delphi process material/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://woodlandtrustorg-my.sharepoint.com/personal/ewanmchenry_woodlandtrust_org_uk/Documents/WEC/Woodland-condition/Data/Delphi round 1/response sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="381" documentId="8_{DD3140B9-43BA-428D-8B9F-F9C103859F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9FC07CF-564F-41ED-8BDA-88D9B9F11DFC}"/>
+  <xr:revisionPtr revIDLastSave="382" documentId="8_{DD3140B9-43BA-428D-8B9F-F9C103859F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16FF816B-EEAA-4FF3-AA7C-854886D2D966}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="3" xr2:uid="{4926A777-5F31-4918-9802-F24A87E993EA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{4926A777-5F31-4918-9802-F24A87E993EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tree age distribution" sheetId="20" r:id="rId1"/>
@@ -4501,7 +4501,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
-          <c:min val="0"/>
+          <c:min val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -18496,21 +18496,21 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.7265625" customWidth="1"/>
-    <col min="2" max="2" width="37.453125" customWidth="1"/>
-    <col min="3" max="3" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.1796875" customWidth="1"/>
-    <col min="12" max="12" width="62.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.7109375" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" customWidth="1"/>
+    <col min="12" max="12" width="62.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36" x14ac:dyDescent="0.8">
+    <row r="1" spans="1:18" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
@@ -18519,12 +18519,12 @@
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="1:18" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -18538,21 +18538,21 @@
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:18" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>5</v>
       </c>
@@ -18561,7 +18561,7 @@
       </c>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>7</v>
       </c>
@@ -18570,7 +18570,7 @@
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="D10" s="27" t="s">
@@ -18591,7 +18591,7 @@
       <c r="Q10" s="27"/>
       <c r="R10" s="27"/>
     </row>
-    <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="D11" s="27"/>
@@ -18610,7 +18610,7 @@
       <c r="Q11" s="27"/>
       <c r="R11" s="27"/>
     </row>
-    <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="D12" s="1" t="s">
@@ -18618,11 +18618,11 @@
       </c>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="I14" s="28" t="s">
@@ -18637,7 +18637,7 @@
       <c r="P14" s="13"/>
       <c r="Q14" s="13"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="I15" s="13" t="s">
@@ -18652,7 +18652,7 @@
       <c r="P15" s="13"/>
       <c r="Q15" s="13"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="I16" s="13" t="s">
@@ -18667,7 +18667,7 @@
       <c r="P16" s="13"/>
       <c r="Q16" s="13"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="I17" s="13" t="s">
@@ -18682,7 +18682,7 @@
       <c r="P17" s="13"/>
       <c r="Q17" s="13"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="I18" s="13"/>
@@ -18697,7 +18697,7 @@
       <c r="P18" s="13"/>
       <c r="Q18" s="13"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="I19" s="13"/>
@@ -18712,7 +18712,7 @@
       <c r="P19" s="13"/>
       <c r="Q19" s="13"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="I20" s="13"/>
@@ -18727,7 +18727,7 @@
       <c r="P20" s="13"/>
       <c r="Q20" s="13"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="I21" s="13"/>
@@ -18742,7 +18742,7 @@
       <c r="P21" s="13"/>
       <c r="Q21" s="13"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="I22" s="13"/>
@@ -18757,7 +18757,7 @@
       <c r="P22" s="13"/>
       <c r="Q22" s="13"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="I23" s="13"/>
@@ -18772,7 +18772,7 @@
       <c r="P23" s="13"/>
       <c r="Q23" s="13"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="I24" s="13"/>
@@ -18787,7 +18787,7 @@
       <c r="P24" s="13"/>
       <c r="Q24" s="13"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="I25" s="13"/>
@@ -18802,7 +18802,7 @@
       <c r="P25" s="13"/>
       <c r="Q25" s="13"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="I26" s="13" t="s">
@@ -18817,7 +18817,7 @@
       <c r="P26" s="13"/>
       <c r="Q26" s="13"/>
     </row>
-    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="D27" s="27" t="s">
@@ -18834,7 +18834,7 @@
       <c r="M27" s="27"/>
       <c r="N27" s="27"/>
     </row>
-    <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="D28" s="27"/>
@@ -18849,14 +18849,14 @@
       <c r="M28" s="27"/>
       <c r="N28" s="27"/>
     </row>
-    <row r="29" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="D29" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="15" t="s">
@@ -18864,7 +18864,7 @@
       </c>
       <c r="D30" s="8"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="16" t="s">
@@ -18872,7 +18872,7 @@
       </c>
       <c r="D31" s="8"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="16" t="s">
@@ -18880,7 +18880,7 @@
       </c>
       <c r="D32" s="8"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="16" t="s">
@@ -18888,7 +18888,7 @@
       </c>
       <c r="D33" s="8"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="16" t="s">
@@ -18896,7 +18896,7 @@
       </c>
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="16" t="s">
@@ -18904,82 +18904,82 @@
       </c>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="17"/>
       <c r="D36" s="8"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="D37" s="8"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
     </row>
@@ -19006,32 +19006,32 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.453125" customWidth="1"/>
-    <col min="2" max="2" width="37.453125" customWidth="1"/>
-    <col min="3" max="3" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.1796875" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36" x14ac:dyDescent="0.8">
+    <row r="1" spans="1:18" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="12" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>168</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
     </row>
-    <row r="3" spans="1:18" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -19045,21 +19045,21 @@
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:18" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>5</v>
       </c>
@@ -19068,7 +19068,7 @@
       </c>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>102</v>
       </c>
@@ -19077,7 +19077,7 @@
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="D10" s="27" t="s">
@@ -19098,7 +19098,7 @@
       <c r="Q10" s="27"/>
       <c r="R10" s="27"/>
     </row>
-    <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="D11" s="27"/>
@@ -19117,7 +19117,7 @@
       <c r="Q11" s="27"/>
       <c r="R11" s="27"/>
     </row>
-    <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="D12" s="1" t="s">
@@ -19125,11 +19125,11 @@
       </c>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="I14" s="28" t="s">
@@ -19144,7 +19144,7 @@
       <c r="P14" s="13"/>
       <c r="Q14" s="13"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="I15" s="13" t="s">
@@ -19159,7 +19159,7 @@
       <c r="P15" s="14"/>
       <c r="Q15" s="13"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="I16" s="13"/>
@@ -19174,7 +19174,7 @@
       <c r="P16" s="14"/>
       <c r="Q16" s="13"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="I17" s="13"/>
@@ -19189,7 +19189,7 @@
       <c r="P17" s="14"/>
       <c r="Q17" s="13"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="I18" s="13"/>
@@ -19204,7 +19204,7 @@
       <c r="P18" s="14"/>
       <c r="Q18" s="13"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="I19" s="13" t="s">
@@ -19219,7 +19219,7 @@
       <c r="P19" s="14"/>
       <c r="Q19" s="13"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="I20" s="13"/>
@@ -19234,7 +19234,7 @@
       <c r="P20" s="14"/>
       <c r="Q20" s="13"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="I21" s="13"/>
@@ -19249,7 +19249,7 @@
       <c r="P21" s="14"/>
       <c r="Q21" s="13"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="I22" s="13"/>
@@ -19264,7 +19264,7 @@
       <c r="P22" s="14"/>
       <c r="Q22" s="13"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="I23" s="13" t="s">
@@ -19279,7 +19279,7 @@
       <c r="P23" s="14"/>
       <c r="Q23" s="13"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="I24" s="13"/>
@@ -19294,15 +19294,15 @@
       <c r="P24" s="14"/>
       <c r="Q24" s="13"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="D27" s="27" t="s">
@@ -19319,7 +19319,7 @@
       <c r="M27" s="27"/>
       <c r="N27" s="27"/>
     </row>
-    <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="D28" s="27"/>
@@ -19334,21 +19334,21 @@
       <c r="M28" s="27"/>
       <c r="N28" s="27"/>
     </row>
-    <row r="29" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="D29" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="16" t="s">
@@ -19356,7 +19356,7 @@
       </c>
       <c r="D31" s="8"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="16" t="s">
@@ -19364,7 +19364,7 @@
       </c>
       <c r="D32" s="8"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="16" t="s">
@@ -19372,7 +19372,7 @@
       </c>
       <c r="D33" s="8"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="16" t="s">
@@ -19380,7 +19380,7 @@
       </c>
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="16" t="s">
@@ -19388,82 +19388,82 @@
       </c>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="17"/>
       <c r="D36" s="8"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="D37" s="8"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
     </row>
@@ -19490,20 +19490,20 @@
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.453125" customWidth="1"/>
-    <col min="2" max="2" width="37.453125" customWidth="1"/>
-    <col min="3" max="3" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.1796875" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36" x14ac:dyDescent="0.8">
+    <row r="1" spans="1:18" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="12" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>113</v>
       </c>
@@ -19512,7 +19512,7 @@
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>114</v>
       </c>
@@ -19523,7 +19523,7 @@
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="13" t="s">
         <v>116</v>
@@ -19532,12 +19532,12 @@
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
     </row>
-    <row r="6" spans="1:18" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -19551,21 +19551,21 @@
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
     </row>
-    <row r="8" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
     </row>
-    <row r="9" spans="1:18" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>5</v>
       </c>
@@ -19574,7 +19574,7 @@
       </c>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>117</v>
       </c>
@@ -19583,7 +19583,7 @@
       </c>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="D13" s="27" t="s">
@@ -19604,7 +19604,7 @@
       <c r="Q13" s="27"/>
       <c r="R13" s="27"/>
     </row>
-    <row r="14" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="D14" s="27"/>
@@ -19623,7 +19623,7 @@
       <c r="Q14" s="27"/>
       <c r="R14" s="27"/>
     </row>
-    <row r="15" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="D15" s="1" t="s">
@@ -19631,11 +19631,11 @@
       </c>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="I17" s="28" t="s">
@@ -19650,7 +19650,7 @@
       <c r="P17" s="13"/>
       <c r="Q17" s="13"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="I18" s="13" t="s">
@@ -19665,7 +19665,7 @@
       <c r="P18" s="14"/>
       <c r="Q18" s="13"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="I19" s="13"/>
@@ -19680,7 +19680,7 @@
       <c r="P19" s="14"/>
       <c r="Q19" s="13"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="I20" s="13"/>
@@ -19695,7 +19695,7 @@
       <c r="P20" s="14"/>
       <c r="Q20" s="13"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="I21" s="13"/>
@@ -19710,7 +19710,7 @@
       <c r="P21" s="14"/>
       <c r="Q21" s="13"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="I22" s="13" t="s">
@@ -19725,7 +19725,7 @@
       <c r="P22" s="14"/>
       <c r="Q22" s="13"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="I23" s="13"/>
@@ -19740,7 +19740,7 @@
       <c r="P23" s="14"/>
       <c r="Q23" s="13"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="I24" s="14"/>
@@ -19753,7 +19753,7 @@
       <c r="P24" s="14"/>
       <c r="Q24" s="13"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="I25" s="13"/>
@@ -19766,7 +19766,7 @@
       <c r="P25" s="14"/>
       <c r="Q25" s="13"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="I26" s="14"/>
@@ -19779,7 +19779,7 @@
       <c r="P26" s="14"/>
       <c r="Q26" s="13"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="I27" s="13"/>
@@ -19792,7 +19792,7 @@
       <c r="P27" s="14"/>
       <c r="Q27" s="13"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="I28" s="14"/>
@@ -19805,7 +19805,7 @@
       <c r="P28" s="14"/>
       <c r="Q28" s="13"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="I29" s="14"/>
@@ -19818,7 +19818,7 @@
       <c r="P29" s="14"/>
       <c r="Q29" s="13"/>
     </row>
-    <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="D30" s="27" t="s">
@@ -19835,7 +19835,7 @@
       <c r="M30" s="27"/>
       <c r="N30" s="27"/>
     </row>
-    <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="D31" s="27"/>
@@ -19850,14 +19850,14 @@
       <c r="M31" s="27"/>
       <c r="N31" s="27"/>
     </row>
-    <row r="32" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="D32" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="15" t="s">
@@ -19865,7 +19865,7 @@
       </c>
       <c r="D33" s="8"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="16" t="s">
@@ -19873,7 +19873,7 @@
       </c>
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="16" t="s">
@@ -19881,7 +19881,7 @@
       </c>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="16" t="s">
@@ -19889,7 +19889,7 @@
       </c>
       <c r="D36" s="8"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="16" t="s">
@@ -19897,7 +19897,7 @@
       </c>
       <c r="D37" s="8"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="16" t="s">
@@ -19905,82 +19905,82 @@
       </c>
       <c r="D38" s="8"/>
     </row>
-    <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="17"/>
       <c r="D39" s="8"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="D40" s="8"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
     </row>
@@ -20007,20 +20007,20 @@
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="37.453125" customWidth="1"/>
-    <col min="3" max="3" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.1796875" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36" x14ac:dyDescent="0.8">
+    <row r="1" spans="1:18" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="12" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>173</v>
       </c>
@@ -20039,12 +20039,12 @@
       <c r="N2" s="26"/>
       <c r="O2" s="26"/>
     </row>
-    <row r="3" spans="1:18" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -20058,21 +20058,21 @@
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:18" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>5</v>
       </c>
@@ -20081,7 +20081,7 @@
       </c>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>122</v>
       </c>
@@ -20090,7 +20090,7 @@
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="D10" s="27" t="s">
@@ -20111,7 +20111,7 @@
       <c r="Q10" s="27"/>
       <c r="R10" s="27"/>
     </row>
-    <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="D11" s="27"/>
@@ -20130,7 +20130,7 @@
       <c r="Q11" s="27"/>
       <c r="R11" s="27"/>
     </row>
-    <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="D12" s="1" t="s">
@@ -20138,11 +20138,11 @@
       </c>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="I14" s="28" t="s">
@@ -20157,7 +20157,7 @@
       <c r="P14" s="13"/>
       <c r="Q14" s="13"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="I15" s="13" t="s">
@@ -20172,7 +20172,7 @@
       <c r="P15" s="14"/>
       <c r="Q15" s="13"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="I16" s="13"/>
@@ -20187,7 +20187,7 @@
       <c r="P16" s="14"/>
       <c r="Q16" s="13"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="I17" s="13"/>
@@ -20202,7 +20202,7 @@
       <c r="P17" s="14"/>
       <c r="Q17" s="13"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="I18" s="13"/>
@@ -20217,7 +20217,7 @@
       <c r="P18" s="14"/>
       <c r="Q18" s="13"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="I19" s="13" t="s">
@@ -20232,7 +20232,7 @@
       <c r="P19" s="14"/>
       <c r="Q19" s="13"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="I20" s="13"/>
@@ -20247,7 +20247,7 @@
       <c r="P20" s="14"/>
       <c r="Q20" s="13"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="I21" s="14"/>
@@ -20260,7 +20260,7 @@
       <c r="P21" s="14"/>
       <c r="Q21" s="13"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="I22" s="13"/>
@@ -20273,7 +20273,7 @@
       <c r="P22" s="14"/>
       <c r="Q22" s="13"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="I23" s="14"/>
@@ -20286,7 +20286,7 @@
       <c r="P23" s="14"/>
       <c r="Q23" s="13"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="I24" s="13"/>
@@ -20299,7 +20299,7 @@
       <c r="P24" s="14"/>
       <c r="Q24" s="13"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="I25" s="14"/>
@@ -20312,7 +20312,7 @@
       <c r="P25" s="14"/>
       <c r="Q25" s="13"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="I26" s="14"/>
@@ -20325,7 +20325,7 @@
       <c r="P26" s="14"/>
       <c r="Q26" s="13"/>
     </row>
-    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="D27" s="27" t="s">
@@ -20342,7 +20342,7 @@
       <c r="M27" s="27"/>
       <c r="N27" s="27"/>
     </row>
-    <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="D28" s="27"/>
@@ -20357,14 +20357,14 @@
       <c r="M28" s="27"/>
       <c r="N28" s="27"/>
     </row>
-    <row r="29" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="D29" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="15" t="s">
@@ -20372,7 +20372,7 @@
       </c>
       <c r="D30" s="8"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="16" t="s">
@@ -20380,7 +20380,7 @@
       </c>
       <c r="D31" s="8"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="16" t="s">
@@ -20388,7 +20388,7 @@
       </c>
       <c r="D32" s="8"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="16" t="s">
@@ -20396,7 +20396,7 @@
       </c>
       <c r="D33" s="8"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="16" t="s">
@@ -20404,7 +20404,7 @@
       </c>
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="16" t="s">
@@ -20412,82 +20412,82 @@
       </c>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="17"/>
       <c r="D36" s="8"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="D37" s="8"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
     </row>
@@ -20514,20 +20514,20 @@
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="37.453125" customWidth="1"/>
-    <col min="3" max="3" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.1796875" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36" x14ac:dyDescent="0.8">
+    <row r="1" spans="1:18" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="12" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>163</v>
       </c>
@@ -20536,7 +20536,7 @@
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
       <c r="B3" s="22" t="s">
         <v>128</v>
@@ -20545,7 +20545,7 @@
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>175</v>
       </c>
@@ -20554,12 +20554,12 @@
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
     </row>
-    <row r="6" spans="1:18" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -20573,21 +20573,21 @@
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
     </row>
-    <row r="8" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
     </row>
-    <row r="9" spans="1:18" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>5</v>
       </c>
@@ -20596,7 +20596,7 @@
       </c>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>129</v>
       </c>
@@ -20605,7 +20605,7 @@
       </c>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="D13" s="27" t="s">
@@ -20626,7 +20626,7 @@
       <c r="Q13" s="27"/>
       <c r="R13" s="27"/>
     </row>
-    <row r="14" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="D14" s="27"/>
@@ -20645,7 +20645,7 @@
       <c r="Q14" s="27"/>
       <c r="R14" s="27"/>
     </row>
-    <row r="15" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="D15" s="1" t="s">
@@ -20653,11 +20653,11 @@
       </c>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="I17" s="28" t="s">
@@ -20672,7 +20672,7 @@
       <c r="P17" s="13"/>
       <c r="Q17" s="13"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="I18" s="13" t="s">
@@ -20687,7 +20687,7 @@
       <c r="P18" s="14"/>
       <c r="Q18" s="13"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="I19" s="13" t="s">
@@ -20702,7 +20702,7 @@
       <c r="P19" s="14"/>
       <c r="Q19" s="13"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="I20" s="13" t="s">
@@ -20717,7 +20717,7 @@
       <c r="P20" s="14"/>
       <c r="Q20" s="13"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="I21" s="13" t="s">
@@ -20732,7 +20732,7 @@
       <c r="P21" s="14"/>
       <c r="Q21" s="13"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="I22" s="13"/>
@@ -20745,7 +20745,7 @@
       <c r="P22" s="14"/>
       <c r="Q22" s="13"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="I23" s="13"/>
@@ -20758,7 +20758,7 @@
       <c r="P23" s="14"/>
       <c r="Q23" s="13"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="I24" s="14"/>
@@ -20771,7 +20771,7 @@
       <c r="P24" s="14"/>
       <c r="Q24" s="13"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="I25" s="13"/>
@@ -20784,7 +20784,7 @@
       <c r="P25" s="14"/>
       <c r="Q25" s="13"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="I26" s="14"/>
@@ -20797,7 +20797,7 @@
       <c r="P26" s="14"/>
       <c r="Q26" s="13"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="I27" s="13"/>
@@ -20810,7 +20810,7 @@
       <c r="P27" s="14"/>
       <c r="Q27" s="13"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="I28" s="14"/>
@@ -20823,7 +20823,7 @@
       <c r="P28" s="14"/>
       <c r="Q28" s="13"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="I29" s="14"/>
@@ -20836,7 +20836,7 @@
       <c r="P29" s="14"/>
       <c r="Q29" s="13"/>
     </row>
-    <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="D30" s="27" t="s">
@@ -20853,7 +20853,7 @@
       <c r="M30" s="27"/>
       <c r="N30" s="27"/>
     </row>
-    <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="D31" s="27"/>
@@ -20868,14 +20868,14 @@
       <c r="M31" s="27"/>
       <c r="N31" s="27"/>
     </row>
-    <row r="32" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="D32" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="15" t="s">
@@ -20883,7 +20883,7 @@
       </c>
       <c r="D33" s="8"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="16" t="s">
@@ -20891,7 +20891,7 @@
       </c>
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="16" t="s">
@@ -20899,7 +20899,7 @@
       </c>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="16" t="s">
@@ -20907,7 +20907,7 @@
       </c>
       <c r="D36" s="8"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="16" t="s">
@@ -20915,7 +20915,7 @@
       </c>
       <c r="D37" s="8"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="16" t="s">
@@ -20923,82 +20923,82 @@
       </c>
       <c r="D38" s="8"/>
     </row>
-    <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="17"/>
       <c r="D39" s="8"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="D40" s="8"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
     </row>
@@ -21025,20 +21025,20 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.54296875" customWidth="1"/>
-    <col min="2" max="2" width="37.453125" customWidth="1"/>
-    <col min="3" max="3" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.1796875" customWidth="1"/>
+    <col min="1" max="1" width="29.5703125" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36" x14ac:dyDescent="0.8">
+    <row r="1" spans="1:18" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="12" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>176</v>
       </c>
@@ -21049,7 +21049,7 @@
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
     </row>
-    <row r="3" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
       <c r="B3" s="22" t="s">
         <v>131</v>
@@ -21060,7 +21060,7 @@
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="13" t="s">
         <v>132</v>
@@ -21071,12 +21071,12 @@
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
     </row>
-    <row r="6" spans="1:18" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -21090,21 +21090,21 @@
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
     </row>
-    <row r="8" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
     </row>
-    <row r="9" spans="1:18" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>5</v>
       </c>
@@ -21113,7 +21113,7 @@
       </c>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>133</v>
       </c>
@@ -21122,7 +21122,7 @@
       </c>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="D13" s="27" t="s">
@@ -21143,7 +21143,7 @@
       <c r="Q13" s="27"/>
       <c r="R13" s="27"/>
     </row>
-    <row r="14" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="D14" s="27"/>
@@ -21162,7 +21162,7 @@
       <c r="Q14" s="27"/>
       <c r="R14" s="27"/>
     </row>
-    <row r="15" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="D15" s="1" t="s">
@@ -21170,11 +21170,11 @@
       </c>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="I17" s="28" t="s">
@@ -21189,7 +21189,7 @@
       <c r="P17" s="13"/>
       <c r="Q17" s="13"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="I18" s="13"/>
@@ -21202,7 +21202,7 @@
       <c r="P18" s="14"/>
       <c r="Q18" s="13"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="I19" s="13"/>
@@ -21215,7 +21215,7 @@
       <c r="P19" s="14"/>
       <c r="Q19" s="13"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="I20" s="13"/>
@@ -21228,7 +21228,7 @@
       <c r="P20" s="14"/>
       <c r="Q20" s="13"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="I21" s="13"/>
@@ -21241,7 +21241,7 @@
       <c r="P21" s="14"/>
       <c r="Q21" s="13"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="I22" s="13"/>
@@ -21254,7 +21254,7 @@
       <c r="P22" s="14"/>
       <c r="Q22" s="13"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="I23" s="13"/>
@@ -21267,7 +21267,7 @@
       <c r="P23" s="14"/>
       <c r="Q23" s="13"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="I24" s="14"/>
@@ -21280,7 +21280,7 @@
       <c r="P24" s="14"/>
       <c r="Q24" s="13"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="I25" s="13"/>
@@ -21293,7 +21293,7 @@
       <c r="P25" s="14"/>
       <c r="Q25" s="13"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="I26" s="14"/>
@@ -21306,7 +21306,7 @@
       <c r="P26" s="14"/>
       <c r="Q26" s="13"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="I27" s="13"/>
@@ -21319,7 +21319,7 @@
       <c r="P27" s="14"/>
       <c r="Q27" s="13"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="I28" s="14"/>
@@ -21332,7 +21332,7 @@
       <c r="P28" s="14"/>
       <c r="Q28" s="13"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="I29" s="14"/>
@@ -21345,7 +21345,7 @@
       <c r="P29" s="14"/>
       <c r="Q29" s="13"/>
     </row>
-    <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="D30" s="27" t="s">
@@ -21362,7 +21362,7 @@
       <c r="M30" s="27"/>
       <c r="N30" s="27"/>
     </row>
-    <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="D31" s="27"/>
@@ -21377,14 +21377,14 @@
       <c r="M31" s="27"/>
       <c r="N31" s="27"/>
     </row>
-    <row r="32" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="D32" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="15" t="s">
@@ -21392,7 +21392,7 @@
       </c>
       <c r="D33" s="8"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="16" t="s">
@@ -21400,7 +21400,7 @@
       </c>
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="16" t="s">
@@ -21408,7 +21408,7 @@
       </c>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="16" t="s">
@@ -21416,7 +21416,7 @@
       </c>
       <c r="D36" s="8"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="16" t="s">
@@ -21424,7 +21424,7 @@
       </c>
       <c r="D37" s="8"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="16" t="s">
@@ -21432,82 +21432,82 @@
       </c>
       <c r="D38" s="8"/>
     </row>
-    <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="17"/>
       <c r="D39" s="8"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="D40" s="8"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
     </row>
@@ -21534,45 +21534,45 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="25.81640625" customWidth="1"/>
-    <col min="3" max="3" width="24.26953125" customWidth="1"/>
-    <col min="4" max="4" width="15.81640625" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="18" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="26" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A3" s="19" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="26" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A4" s="19" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="20" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>140</v>
       </c>
@@ -21598,7 +21598,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>150</v>
       </c>
@@ -21610,7 +21610,7 @@
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>165</v>
       </c>
@@ -21622,7 +21622,7 @@
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
         <v>152</v>
       </c>
@@ -21634,7 +21634,7 @@
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
         <v>127</v>
       </c>
@@ -21646,7 +21646,7 @@
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
         <v>177</v>
       </c>
@@ -21658,7 +21658,7 @@
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>153</v>
       </c>
@@ -21670,7 +21670,7 @@
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>148</v>
       </c>
@@ -21682,7 +21682,7 @@
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
         <v>130</v>
       </c>
@@ -21694,7 +21694,7 @@
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
         <v>94</v>
       </c>
@@ -21706,7 +21706,7 @@
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
         <v>149</v>
       </c>
@@ -21718,7 +21718,7 @@
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
         <v>151</v>
       </c>
@@ -21730,7 +21730,7 @@
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>164</v>
       </c>
@@ -21742,7 +21742,7 @@
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>166</v>
       </c>
@@ -21754,7 +21754,7 @@
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="21" t="s">
         <v>167</v>
       </c>
@@ -21782,24 +21782,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{874D2522-2B76-4503-81F6-47499AF8A525}">
   <dimension ref="A1:R54"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.7265625" customWidth="1"/>
-    <col min="2" max="2" width="37.453125" customWidth="1"/>
-    <col min="3" max="3" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.1796875" customWidth="1"/>
+    <col min="1" max="1" width="36.7109375" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36" x14ac:dyDescent="0.8">
+    <row r="1" spans="1:18" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>169</v>
       </c>
@@ -21807,12 +21807,12 @@
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
     </row>
-    <row r="3" spans="1:18" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -21826,21 +21826,21 @@
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:18" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>5</v>
       </c>
@@ -21849,7 +21849,7 @@
       </c>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>33</v>
       </c>
@@ -21858,7 +21858,7 @@
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="D10" s="27" t="s">
@@ -21879,7 +21879,7 @@
       <c r="Q10" s="27"/>
       <c r="R10" s="27"/>
     </row>
-    <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="D11" s="27"/>
@@ -21898,7 +21898,7 @@
       <c r="Q11" s="27"/>
       <c r="R11" s="27"/>
     </row>
-    <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="D12" s="1" t="s">
@@ -21906,15 +21906,15 @@
       </c>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="I15" s="28" t="s">
@@ -21925,7 +21925,7 @@
       <c r="L15" s="28"/>
       <c r="M15" s="28"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="I16" s="13" t="s">
@@ -21936,7 +21936,7 @@
       <c r="L16" s="13"/>
       <c r="M16" s="13"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="I17" s="13"/>
@@ -21947,7 +21947,7 @@
       <c r="L17" s="13"/>
       <c r="M17" s="13"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="I18" s="13"/>
@@ -21958,7 +21958,7 @@
       <c r="L18" s="13"/>
       <c r="M18" s="13"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="I19" s="13"/>
@@ -21969,35 +21969,35 @@
       <c r="L19" s="13"/>
       <c r="M19" s="13"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="D27" s="27" t="s">
@@ -22014,7 +22014,7 @@
       <c r="M27" s="27"/>
       <c r="N27" s="27"/>
     </row>
-    <row r="28" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="D28" s="27"/>
@@ -22029,14 +22029,14 @@
       <c r="M28" s="27"/>
       <c r="N28" s="27"/>
     </row>
-    <row r="29" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="D29" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="15" t="s">
@@ -22044,7 +22044,7 @@
       </c>
       <c r="D30" s="8"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="16" t="s">
@@ -22052,7 +22052,7 @@
       </c>
       <c r="D31" s="8"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="16" t="s">
@@ -22060,7 +22060,7 @@
       </c>
       <c r="D32" s="8"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="16" t="s">
@@ -22068,7 +22068,7 @@
       </c>
       <c r="D33" s="8"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="16" t="s">
@@ -22076,7 +22076,7 @@
       </c>
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="16" t="s">
@@ -22084,82 +22084,82 @@
       </c>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="17"/>
       <c r="D36" s="8"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="D37" s="8"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
     </row>
@@ -22182,36 +22182,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AADE01BF-891C-4D98-B138-661CC22AFA79}">
   <dimension ref="A1:R54"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.7265625" customWidth="1"/>
-    <col min="2" max="2" width="37.453125" customWidth="1"/>
-    <col min="3" max="3" width="18.54296875" customWidth="1"/>
-    <col min="4" max="4" width="22.1796875" customWidth="1"/>
+    <col min="1" max="1" width="36.7109375" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36" x14ac:dyDescent="0.8">
+    <row r="1" spans="1:18" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="12" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="20" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>39</v>
       </c>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
     </row>
-    <row r="3" spans="1:18" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -22225,21 +22225,21 @@
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:18" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>5</v>
       </c>
@@ -22248,7 +22248,7 @@
       </c>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>41</v>
       </c>
@@ -22257,7 +22257,7 @@
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="D10" s="27" t="s">
@@ -22278,7 +22278,7 @@
       <c r="Q10" s="27"/>
       <c r="R10" s="27"/>
     </row>
-    <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="D11" s="27"/>
@@ -22297,7 +22297,7 @@
       <c r="Q11" s="27"/>
       <c r="R11" s="27"/>
     </row>
-    <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="D12" s="1" t="s">
@@ -22305,11 +22305,11 @@
       </c>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="I14" s="28" t="s">
@@ -22324,7 +22324,7 @@
       <c r="P14" s="13"/>
       <c r="Q14" s="13"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="I15" s="13"/>
@@ -22337,7 +22337,7 @@
       <c r="P15" s="13"/>
       <c r="Q15" s="13"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="I16" s="13" t="s">
@@ -22352,7 +22352,7 @@
       <c r="P16" s="13"/>
       <c r="Q16" s="13"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="I17" s="13"/>
@@ -22367,7 +22367,7 @@
       <c r="P17" s="13"/>
       <c r="Q17" s="13"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="I18" s="13"/>
@@ -22382,7 +22382,7 @@
       <c r="P18" s="13"/>
       <c r="Q18" s="13"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="I19" s="13"/>
@@ -22397,7 +22397,7 @@
       <c r="P19" s="13"/>
       <c r="Q19" s="13"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="I20" s="13" t="s">
@@ -22412,7 +22412,7 @@
       <c r="P20" s="13"/>
       <c r="Q20" s="13"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="I21" s="13"/>
@@ -22427,7 +22427,7 @@
       <c r="P21" s="13"/>
       <c r="Q21" s="13"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="I22" s="13"/>
@@ -22442,7 +22442,7 @@
       <c r="P22" s="13"/>
       <c r="Q22" s="13"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="I23" s="13"/>
@@ -22457,7 +22457,7 @@
       <c r="P23" s="13"/>
       <c r="Q23" s="13"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="I24" s="13"/>
@@ -22472,7 +22472,7 @@
       <c r="P24" s="13"/>
       <c r="Q24" s="13"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="I25" s="13"/>
@@ -22485,7 +22485,7 @@
       <c r="P25" s="13"/>
       <c r="Q25" s="13"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="I26" s="13"/>
@@ -22498,7 +22498,7 @@
       <c r="P26" s="13"/>
       <c r="Q26" s="13"/>
     </row>
-    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="D27" s="27" t="s">
@@ -22515,7 +22515,7 @@
       <c r="M27" s="27"/>
       <c r="N27" s="27"/>
     </row>
-    <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="D28" s="27"/>
@@ -22530,14 +22530,14 @@
       <c r="M28" s="27"/>
       <c r="N28" s="27"/>
     </row>
-    <row r="29" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="D29" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="15" t="s">
@@ -22545,7 +22545,7 @@
       </c>
       <c r="D30" s="8"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="16" t="s">
@@ -22553,7 +22553,7 @@
       </c>
       <c r="D31" s="8"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="16" t="s">
@@ -22561,7 +22561,7 @@
       </c>
       <c r="D32" s="8"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="16" t="s">
@@ -22569,7 +22569,7 @@
       </c>
       <c r="D33" s="8"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="16" t="s">
@@ -22577,7 +22577,7 @@
       </c>
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="16" t="s">
@@ -22585,82 +22585,82 @@
       </c>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="17"/>
       <c r="D36" s="8"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="D37" s="8"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
     </row>
@@ -22683,34 +22683,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8E3BDB2-4936-4583-A0D1-731A826C7FE6}">
   <dimension ref="A1:R54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.7265625" customWidth="1"/>
-    <col min="2" max="2" width="37.453125" customWidth="1"/>
-    <col min="3" max="3" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.1796875" customWidth="1"/>
+    <col min="1" max="1" width="36.7109375" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36" x14ac:dyDescent="0.8">
+    <row r="1" spans="1:18" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="12" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -22724,21 +22724,21 @@
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:18" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>5</v>
       </c>
@@ -22747,7 +22747,7 @@
       </c>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>52</v>
       </c>
@@ -22756,7 +22756,7 @@
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="D10" s="27" t="s">
@@ -22777,7 +22777,7 @@
       <c r="Q10" s="27"/>
       <c r="R10" s="27"/>
     </row>
-    <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="D11" s="27"/>
@@ -22796,7 +22796,7 @@
       <c r="Q11" s="27"/>
       <c r="R11" s="27"/>
     </row>
-    <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="D12" s="1" t="s">
@@ -22804,11 +22804,11 @@
       </c>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="I14" s="28" t="s">
@@ -22820,7 +22820,7 @@
       <c r="M14" s="28"/>
       <c r="N14" s="13"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="I15" s="13" t="s">
@@ -22832,7 +22832,7 @@
       <c r="M15" s="13"/>
       <c r="N15" s="13"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="I16" s="13" t="s">
@@ -22844,7 +22844,7 @@
       <c r="M16" s="13"/>
       <c r="N16" s="13"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="I17" s="13"/>
@@ -22856,7 +22856,7 @@
       <c r="M17" s="13"/>
       <c r="N17" s="13"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="I18" s="13"/>
@@ -22868,7 +22868,7 @@
       <c r="M18" s="13"/>
       <c r="N18" s="13"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="I19" s="13"/>
@@ -22880,7 +22880,7 @@
       <c r="M19" s="13"/>
       <c r="N19" s="13"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="I20" s="13" t="s">
@@ -22892,31 +22892,31 @@
       <c r="M20" s="13"/>
       <c r="N20" s="13"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="D27" s="27" t="s">
@@ -22933,7 +22933,7 @@
       <c r="M27" s="27"/>
       <c r="N27" s="27"/>
     </row>
-    <row r="28" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="D28" s="27"/>
@@ -22948,14 +22948,14 @@
       <c r="M28" s="27"/>
       <c r="N28" s="27"/>
     </row>
-    <row r="29" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="D29" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="15" t="s">
@@ -22963,7 +22963,7 @@
       </c>
       <c r="D30" s="8"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="16" t="s">
@@ -22971,7 +22971,7 @@
       </c>
       <c r="D31" s="8"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="16" t="s">
@@ -22979,7 +22979,7 @@
       </c>
       <c r="D32" s="8"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="16" t="s">
@@ -22987,7 +22987,7 @@
       </c>
       <c r="D33" s="8"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="16" t="s">
@@ -22995,7 +22995,7 @@
       </c>
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="16" t="s">
@@ -23003,82 +23003,82 @@
       </c>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="17"/>
       <c r="D36" s="8"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="D37" s="8"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
     </row>
@@ -23101,24 +23101,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C978F019-6F9F-4E8D-8B03-A89E4FDD2E73}">
   <dimension ref="A1:R54"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.7265625" customWidth="1"/>
-    <col min="2" max="2" width="37.453125" customWidth="1"/>
-    <col min="3" max="3" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.1796875" customWidth="1"/>
+    <col min="1" max="1" width="36.7109375" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36" x14ac:dyDescent="0.8">
+    <row r="1" spans="1:18" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="12" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>59</v>
       </c>
@@ -23127,12 +23127,12 @@
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="1:18" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -23146,21 +23146,21 @@
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:18" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>5</v>
       </c>
@@ -23169,7 +23169,7 @@
       </c>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>60</v>
       </c>
@@ -23178,7 +23178,7 @@
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="D10" s="27" t="s">
@@ -23199,7 +23199,7 @@
       <c r="Q10" s="27"/>
       <c r="R10" s="27"/>
     </row>
-    <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="D11" s="27"/>
@@ -23218,7 +23218,7 @@
       <c r="Q11" s="27"/>
       <c r="R11" s="27"/>
     </row>
-    <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="D12" s="1" t="s">
@@ -23226,15 +23226,15 @@
       </c>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="I15" s="28" t="s">
@@ -23249,7 +23249,7 @@
       <c r="P15" s="13"/>
       <c r="Q15" s="13"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="I16" s="13" t="s">
@@ -23264,7 +23264,7 @@
       <c r="P16" s="13"/>
       <c r="Q16" s="13"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="I17" s="13"/>
@@ -23279,7 +23279,7 @@
       <c r="P17" s="13"/>
       <c r="Q17" s="13"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="I18" s="13"/>
@@ -23294,7 +23294,7 @@
       <c r="P18" s="13"/>
       <c r="Q18" s="13"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="I19" s="13"/>
@@ -23309,35 +23309,35 @@
       <c r="P19" s="13"/>
       <c r="Q19" s="13"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="D27" s="27" t="s">
@@ -23354,7 +23354,7 @@
       <c r="M27" s="27"/>
       <c r="N27" s="27"/>
     </row>
-    <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="D28" s="27"/>
@@ -23369,14 +23369,14 @@
       <c r="M28" s="27"/>
       <c r="N28" s="27"/>
     </row>
-    <row r="29" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="D29" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="15" t="s">
@@ -23384,7 +23384,7 @@
       </c>
       <c r="D30" s="8"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="16" t="s">
@@ -23392,7 +23392,7 @@
       </c>
       <c r="D31" s="8"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="16" t="s">
@@ -23400,7 +23400,7 @@
       </c>
       <c r="D32" s="8"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="16" t="s">
@@ -23408,7 +23408,7 @@
       </c>
       <c r="D33" s="8"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="16" t="s">
@@ -23416,7 +23416,7 @@
       </c>
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="16" t="s">
@@ -23424,82 +23424,82 @@
       </c>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="17"/>
       <c r="D36" s="8"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="D37" s="8"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
     </row>
@@ -23526,30 +23526,30 @@
       <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.7265625" customWidth="1"/>
-    <col min="2" max="2" width="37.453125" customWidth="1"/>
-    <col min="3" max="3" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.1796875" customWidth="1"/>
+    <col min="1" max="1" width="36.7109375" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="36" x14ac:dyDescent="0.8">
+    <row r="1" spans="1:20" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="12" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="20" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -23563,21 +23563,21 @@
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:20" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:20" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>5</v>
       </c>
@@ -23586,7 +23586,7 @@
       </c>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>65</v>
       </c>
@@ -23595,7 +23595,7 @@
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="D10" s="27" t="s">
@@ -23616,7 +23616,7 @@
       <c r="Q10" s="27"/>
       <c r="R10" s="27"/>
     </row>
-    <row r="11" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="D11" s="27"/>
@@ -23635,7 +23635,7 @@
       <c r="Q11" s="27"/>
       <c r="R11" s="27"/>
     </row>
-    <row r="12" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="D12" s="1" t="s">
@@ -23643,11 +23643,11 @@
       </c>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="I14" s="28" t="s">
@@ -23665,7 +23665,7 @@
       <c r="S14" s="13"/>
       <c r="T14" s="13"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="I15" s="14" t="s">
@@ -23683,7 +23683,7 @@
       <c r="S15" s="13"/>
       <c r="T15" s="13"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="I16" s="14"/>
@@ -23701,7 +23701,7 @@
       <c r="S16" s="13"/>
       <c r="T16" s="13"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="I17" s="14"/>
@@ -23719,7 +23719,7 @@
       <c r="S17" s="13"/>
       <c r="T17" s="13"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="I18" s="14"/>
@@ -23737,7 +23737,7 @@
       <c r="S18" s="13"/>
       <c r="T18" s="13"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="I19" s="14"/>
@@ -23755,7 +23755,7 @@
       <c r="S19" s="13"/>
       <c r="T19" s="13"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="I20" s="14"/>
@@ -23773,7 +23773,7 @@
       <c r="S20" s="13"/>
       <c r="T20" s="13"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="I21" s="14"/>
@@ -23791,7 +23791,7 @@
       <c r="S21" s="13"/>
       <c r="T21" s="13"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="I22" s="13" t="s">
@@ -23809,7 +23809,7 @@
       <c r="S22" s="13"/>
       <c r="T22" s="13"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="I23" s="13"/>
@@ -23827,7 +23827,7 @@
       <c r="S23" s="13"/>
       <c r="T23" s="13"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="I24" s="13"/>
@@ -23845,7 +23845,7 @@
       <c r="S24" s="13"/>
       <c r="T24" s="13"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="I25" s="13" t="s">
@@ -23863,7 +23863,7 @@
       <c r="S25" s="13"/>
       <c r="T25" s="13"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="I26" s="13" t="s">
@@ -23881,7 +23881,7 @@
       <c r="S26" s="13"/>
       <c r="T26" s="13"/>
     </row>
-    <row r="27" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="D27" s="27" t="s">
@@ -23898,7 +23898,7 @@
       <c r="M27" s="27"/>
       <c r="N27" s="27"/>
     </row>
-    <row r="28" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="D28" s="27"/>
@@ -23913,14 +23913,14 @@
       <c r="M28" s="27"/>
       <c r="N28" s="27"/>
     </row>
-    <row r="29" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="D29" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="15" t="s">
@@ -23928,7 +23928,7 @@
       </c>
       <c r="D30" s="8"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="16" t="s">
@@ -23936,7 +23936,7 @@
       </c>
       <c r="D31" s="8"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="16" t="s">
@@ -23944,7 +23944,7 @@
       </c>
       <c r="D32" s="8"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="16" t="s">
@@ -23952,7 +23952,7 @@
       </c>
       <c r="D33" s="8"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="16" t="s">
@@ -23960,7 +23960,7 @@
       </c>
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="16" t="s">
@@ -23968,82 +23968,82 @@
       </c>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="17"/>
       <c r="D36" s="8"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="D37" s="8"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
     </row>
@@ -24070,37 +24070,37 @@
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.453125" customWidth="1"/>
-    <col min="2" max="2" width="37.453125" customWidth="1"/>
-    <col min="3" max="3" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.1796875" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36" x14ac:dyDescent="0.8">
+    <row r="1" spans="1:18" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="12" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>78</v>
       </c>
       <c r="B2" s="14"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>79</v>
       </c>
       <c r="B3" s="14"/>
     </row>
-    <row r="4" spans="1:18" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -24114,21 +24114,21 @@
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
     </row>
-    <row r="6" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
     </row>
-    <row r="7" spans="1:18" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>5</v>
       </c>
@@ -24137,7 +24137,7 @@
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>80</v>
       </c>
@@ -24146,7 +24146,7 @@
       </c>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="D11" s="27" t="s">
@@ -24167,7 +24167,7 @@
       <c r="Q11" s="27"/>
       <c r="R11" s="27"/>
     </row>
-    <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="D12" s="27"/>
@@ -24186,7 +24186,7 @@
       <c r="Q12" s="27"/>
       <c r="R12" s="27"/>
     </row>
-    <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="D13" s="1" t="s">
@@ -24194,11 +24194,11 @@
       </c>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="I15" s="28" t="s">
@@ -24213,7 +24213,7 @@
       <c r="P15" s="13"/>
       <c r="Q15" s="13"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="I16" s="13" t="s">
@@ -24228,7 +24228,7 @@
       <c r="P16" s="14"/>
       <c r="Q16" s="13"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="I17" s="13"/>
@@ -24243,7 +24243,7 @@
       <c r="P17" s="14"/>
       <c r="Q17" s="13"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="I18" s="13"/>
@@ -24258,7 +24258,7 @@
       <c r="P18" s="14"/>
       <c r="Q18" s="13"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="I19" s="13"/>
@@ -24273,7 +24273,7 @@
       <c r="P19" s="14"/>
       <c r="Q19" s="13"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="I20" s="13" t="s">
@@ -24288,7 +24288,7 @@
       <c r="P20" s="14"/>
       <c r="Q20" s="13"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="I21" s="14"/>
@@ -24303,7 +24303,7 @@
       <c r="P21" s="14"/>
       <c r="Q21" s="13"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="I22" s="13"/>
@@ -24318,7 +24318,7 @@
       <c r="P22" s="14"/>
       <c r="Q22" s="13"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="I23" s="14"/>
@@ -24333,7 +24333,7 @@
       <c r="P23" s="14"/>
       <c r="Q23" s="13"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="I24" s="14"/>
@@ -24346,19 +24346,19 @@
       <c r="P24" s="14"/>
       <c r="Q24" s="13"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="D28" s="27" t="s">
@@ -24375,7 +24375,7 @@
       <c r="M28" s="27"/>
       <c r="N28" s="27"/>
     </row>
-    <row r="29" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="D29" s="27"/>
@@ -24390,14 +24390,14 @@
       <c r="M29" s="27"/>
       <c r="N29" s="27"/>
     </row>
-    <row r="30" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="D30" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="15" t="s">
@@ -24405,7 +24405,7 @@
       </c>
       <c r="D31" s="8"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="16" t="s">
@@ -24413,7 +24413,7 @@
       </c>
       <c r="D32" s="8"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="16" t="s">
@@ -24421,7 +24421,7 @@
       </c>
       <c r="D33" s="8"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="16" t="s">
@@ -24429,7 +24429,7 @@
       </c>
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="16" t="s">
@@ -24437,7 +24437,7 @@
       </c>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="16" t="s">
@@ -24445,82 +24445,82 @@
       </c>
       <c r="D36" s="8"/>
     </row>
-    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="17"/>
       <c r="D37" s="8"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="D38" s="8"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
     </row>
@@ -24547,28 +24547,28 @@
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.453125" customWidth="1"/>
-    <col min="2" max="2" width="37.453125" customWidth="1"/>
-    <col min="3" max="3" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.1796875" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36" x14ac:dyDescent="0.8">
+    <row r="1" spans="1:18" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="12" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
     </row>
-    <row r="3" spans="1:18" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -24582,21 +24582,21 @@
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:18" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>5</v>
       </c>
@@ -24605,7 +24605,7 @@
       </c>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>89</v>
       </c>
@@ -24614,7 +24614,7 @@
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="D10" s="27" t="s">
@@ -24635,7 +24635,7 @@
       <c r="Q10" s="27"/>
       <c r="R10" s="27"/>
     </row>
-    <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="D11" s="27"/>
@@ -24654,7 +24654,7 @@
       <c r="Q11" s="27"/>
       <c r="R11" s="27"/>
     </row>
-    <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="D12" s="1" t="s">
@@ -24662,11 +24662,11 @@
       </c>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="I14" s="28" t="s">
@@ -24681,7 +24681,7 @@
       <c r="P14" s="13"/>
       <c r="Q14" s="13"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="I15" s="13" t="s">
@@ -24696,7 +24696,7 @@
       <c r="P15" s="14"/>
       <c r="Q15" s="13"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="I16" s="13"/>
@@ -24711,7 +24711,7 @@
       <c r="P16" s="14"/>
       <c r="Q16" s="13"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="I17" s="13"/>
@@ -24726,7 +24726,7 @@
       <c r="P17" s="14"/>
       <c r="Q17" s="13"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="I18" s="13"/>
@@ -24741,7 +24741,7 @@
       <c r="P18" s="14"/>
       <c r="Q18" s="13"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="I19" s="13" t="s">
@@ -24756,7 +24756,7 @@
       <c r="P19" s="14"/>
       <c r="Q19" s="13"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="I20" s="13"/>
@@ -24769,7 +24769,7 @@
       <c r="P20" s="14"/>
       <c r="Q20" s="13"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="I21" s="14"/>
@@ -24782,7 +24782,7 @@
       <c r="P21" s="14"/>
       <c r="Q21" s="13"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="I22" s="13"/>
@@ -24795,7 +24795,7 @@
       <c r="P22" s="14"/>
       <c r="Q22" s="13"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="I23" s="14"/>
@@ -24808,7 +24808,7 @@
       <c r="P23" s="14"/>
       <c r="Q23" s="13"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="I24" s="13"/>
@@ -24821,7 +24821,7 @@
       <c r="P24" s="14"/>
       <c r="Q24" s="13"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="I25" s="14"/>
@@ -24834,7 +24834,7 @@
       <c r="P25" s="14"/>
       <c r="Q25" s="13"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="I26" s="14"/>
@@ -24847,7 +24847,7 @@
       <c r="P26" s="14"/>
       <c r="Q26" s="13"/>
     </row>
-    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="D27" s="27" t="s">
@@ -24864,7 +24864,7 @@
       <c r="M27" s="27"/>
       <c r="N27" s="27"/>
     </row>
-    <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="D28" s="27"/>
@@ -24879,14 +24879,14 @@
       <c r="M28" s="27"/>
       <c r="N28" s="27"/>
     </row>
-    <row r="29" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="D29" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="15" t="s">
@@ -24894,7 +24894,7 @@
       </c>
       <c r="D30" s="8"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="16" t="s">
@@ -24902,7 +24902,7 @@
       </c>
       <c r="D31" s="8"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="16" t="s">
@@ -24910,7 +24910,7 @@
       </c>
       <c r="D32" s="8"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="16" t="s">
@@ -24918,7 +24918,7 @@
       </c>
       <c r="D33" s="8"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="16" t="s">
@@ -24926,7 +24926,7 @@
       </c>
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="16" t="s">
@@ -24934,82 +24934,82 @@
       </c>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="17"/>
       <c r="D36" s="8"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="D37" s="8"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
     </row>
@@ -25036,20 +25036,20 @@
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.453125" customWidth="1"/>
-    <col min="2" max="2" width="37.453125" customWidth="1"/>
-    <col min="3" max="3" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.1796875" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36" x14ac:dyDescent="0.8">
+    <row r="1" spans="1:18" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="12" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>157</v>
       </c>
@@ -25057,12 +25057,12 @@
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
     </row>
-    <row r="3" spans="1:18" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -25076,21 +25076,21 @@
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:18" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>5</v>
       </c>
@@ -25099,7 +25099,7 @@
       </c>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>95</v>
       </c>
@@ -25108,7 +25108,7 @@
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="D10" s="27" t="s">
@@ -25129,7 +25129,7 @@
       <c r="Q10" s="27"/>
       <c r="R10" s="27"/>
     </row>
-    <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="D11" s="27"/>
@@ -25148,7 +25148,7 @@
       <c r="Q11" s="27"/>
       <c r="R11" s="27"/>
     </row>
-    <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="D12" s="1" t="s">
@@ -25156,11 +25156,11 @@
       </c>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="I14" s="28" t="s">
@@ -25175,7 +25175,7 @@
       <c r="P14" s="13"/>
       <c r="Q14" s="13"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="I15" s="13" t="s">
@@ -25190,7 +25190,7 @@
       <c r="P15" s="14"/>
       <c r="Q15" s="13"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="I16" s="13"/>
@@ -25205,7 +25205,7 @@
       <c r="P16" s="14"/>
       <c r="Q16" s="13"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="I17" s="13"/>
@@ -25220,7 +25220,7 @@
       <c r="P17" s="14"/>
       <c r="Q17" s="13"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="I18" s="13"/>
@@ -25235,7 +25235,7 @@
       <c r="P18" s="14"/>
       <c r="Q18" s="13"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="I19" s="13" t="s">
@@ -25250,7 +25250,7 @@
       <c r="P19" s="14"/>
       <c r="Q19" s="13"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="I20" s="13"/>
@@ -25265,7 +25265,7 @@
       <c r="P20" s="14"/>
       <c r="Q20" s="13"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="I21" s="14"/>
@@ -25280,7 +25280,7 @@
       <c r="P21" s="14"/>
       <c r="Q21" s="13"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="I22" s="13"/>
@@ -25293,7 +25293,7 @@
       <c r="P22" s="14"/>
       <c r="Q22" s="13"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="I23" s="14"/>
@@ -25306,7 +25306,7 @@
       <c r="P23" s="14"/>
       <c r="Q23" s="13"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="I24" s="13"/>
@@ -25319,7 +25319,7 @@
       <c r="P24" s="14"/>
       <c r="Q24" s="13"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="I25" s="14"/>
@@ -25332,7 +25332,7 @@
       <c r="P25" s="14"/>
       <c r="Q25" s="13"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="I26" s="14"/>
@@ -25345,7 +25345,7 @@
       <c r="P26" s="14"/>
       <c r="Q26" s="13"/>
     </row>
-    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="D27" s="27" t="s">
@@ -25362,7 +25362,7 @@
       <c r="M27" s="27"/>
       <c r="N27" s="27"/>
     </row>
-    <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="D28" s="27"/>
@@ -25377,14 +25377,14 @@
       <c r="M28" s="27"/>
       <c r="N28" s="27"/>
     </row>
-    <row r="29" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="D29" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="15" t="s">
@@ -25392,7 +25392,7 @@
       </c>
       <c r="D30" s="8"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="16" t="s">
@@ -25400,7 +25400,7 @@
       </c>
       <c r="D31" s="8"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="16" t="s">
@@ -25408,7 +25408,7 @@
       </c>
       <c r="D32" s="8"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="16" t="s">
@@ -25416,7 +25416,7 @@
       </c>
       <c r="D33" s="8"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="16" t="s">
@@ -25424,7 +25424,7 @@
       </c>
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="16" t="s">
@@ -25432,82 +25432,82 @@
       </c>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="17"/>
       <c r="D36" s="8"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="D37" s="8"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
     </row>
@@ -25527,34 +25527,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="cce065d8-4207-498d-8ddb-77753710233a">
-      <UserInfo>
-        <DisplayName>Christine Reid</DisplayName>
-        <AccountId>11</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Daniel Aiken</DisplayName>
-        <AccountId>66</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AF102A4A1803344B8D888EB900B09227" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="43bc291949bcf5a898aed47fdf38e56c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="090e8724-afd2-4a00-8d2e-c87448cad135" xmlns:ns3="cce065d8-4207-498d-8ddb-77753710233a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8a89575b99fa510669e25d545522f68e" ns2:_="" ns3:_="">
     <xsd:import namespace="090e8724-afd2-4a00-8d2e-c87448cad135"/>
@@ -25745,10 +25717,49 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="cce065d8-4207-498d-8ddb-77753710233a">
+      <UserInfo>
+        <DisplayName>Christine Reid</DisplayName>
+        <AccountId>11</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Daniel Aiken</DisplayName>
+        <AccountId>66</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170C8C87-D947-4550-B837-5AF2D61371C8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6617C3D-29D9-48EE-BF3C-21AA1A387073}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="090e8724-afd2-4a00-8d2e-c87448cad135"/>
+    <ds:schemaRef ds:uri="cce065d8-4207-498d-8ddb-77753710233a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -25771,20 +25782,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6617C3D-29D9-48EE-BF3C-21AA1A387073}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170C8C87-D947-4550-B837-5AF2D61371C8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="090e8724-afd2-4a00-8d2e-c87448cad135"/>
-    <ds:schemaRef ds:uri="cce065d8-4207-498d-8ddb-77753710233a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>